--- a/EjemploExportacion.xlsx
+++ b/EjemploExportacion.xlsx
@@ -1,37 +1,328 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+  <si>
+    <t>Nombre Producto</t>
+  </si>
+  <si>
+    <t>Precio - Cantidad</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Url Tienda</t>
+  </si>
+  <si>
+    <t>Nombre Tienda</t>
+  </si>
+  <si>
+    <t>Correa de nailon para Huawei Watch GT3 GT 3 GT2 2 Pro 42mm 46mm, pulsera de reloj inteligente Honor Magic 1 2, 20mm 22mm</t>
+  </si>
+  <si>
+    <t>Cargador USB de carga rápida, Cable tipo C QC3.0 de 120W, para iPhone, Huawei, Samsung y Xiaomi</t>
+  </si>
+  <si>
+    <t>Corbatas clásicas de algodón para hombre, corbatas ajustadas a cuadros grises hechas a mano, cuello estrecho a rayas, corbata informal de Cachemira delgada, accesorios de regalo, 6cm</t>
+  </si>
+  <si>
+    <t>Corbata de Cachemira a rayas Jacquard para hombre, corbata estrecha de poliéster, traje de esmoquin Delgado, camisa de regalo, 61 colores, 6cm</t>
+  </si>
+  <si>
+    <t>Lazos de moda para Hombres de Algodón Lazo Estrecho Flaco Corbata Corbatas para el Invierno Men Party Corbata delgada Ocasional Impreso Corbatas corbatas</t>
+  </si>
+  <si>
+    <t>Funda protectora de cartas TCG para Mtg, Protector de cubierta de Pokemon Yugioh, Tarot, 66x91mm, 100 piezas</t>
+  </si>
+  <si>
+    <t>Correa de Metal para Reloj Inteligente, Pulsera para Garmin Vivoactive 3, 4, 4s, Venu 2, 2s, SQ Forerunner 645, Bucle Milanés, 18 mm, 20 mm, 22mm</t>
+  </si>
+  <si>
+    <t>Correa para Samsung Galaxy watch 4, classic, 46mm, Active 2, Gear S3, 5/5 pro, 44mm, 40mm, nailon elástico, Huawei GT 2/3 Pro band, 20mm, 22mm</t>
+  </si>
+  <si>
+    <t>Corbata de lino de dibujos animados para boda, corbatas casuales delgadas para fiesta, Trajes clásicos, corbatas de cuello con estampado Floral de animales, regalo de corbata, nuevo</t>
+  </si>
+  <si>
+    <t>Funda de silicona suave para auriculares inalámbricos, funda protectora con gancho para Sony WF-C500, con dibujos de Marvel</t>
+  </si>
+  <si>
+    <t>Gafas de sol cuadradas con espejo para hombre, lentes polarizadas deportivas para conducir, para fiesta, bloque Ken UV400 SPY +</t>
+  </si>
+  <si>
+    <t>Funda de TPU para Huawei watch GT 2e GT3 Pro de 46mm 43mm funda protectora de pantalla suave, envolvente, GT3 de 46mm/GT2e/GT2 Pro</t>
+  </si>
+  <si>
+    <t>Funda de cristal para Nintendo Switch, carcasa rígida para PC, Compatible con mando Joy-con, cubierta transparente</t>
+  </si>
+  <si>
+    <t>Correa de reloj para Huawei GT 2 GT2 Pro, correa de cuero genuino de 22mm, repuesto de correa de reloj Honor Magic 1 2 46mm</t>
+  </si>
+  <si>
+    <t>Funda de TPU para Huawei watch GT 2 de 46mm, correa de reloj huawei GT2 de 46mm, funda envolvente chapada suave, funda protectora de pantalla</t>
+  </si>
+  <si>
+    <t>Juego de accesorios de herramientas rotativas dremel, amoladora eléctrica de 1/8 pulgadas, vástago de taladro, Kit de brocas de pulido de cera de fieltro de lana + almacenamiento, 76 Uds.</t>
+  </si>
+  <si>
+    <t>Cables de Tubo termorretráctil de 127 piezas, envoltura retráctil, cubierta de conexión de Cable de protección, Cable eléctrico resistente al agua, retráctil 2:1</t>
+  </si>
+  <si>
+    <t>Discos de pulido de grano 100-100, papel de lija de 1 pulgada, papel de lija para accesorios de herramientas abrasivas rotativas Dremel, 3000 unids/lote</t>
+  </si>
+  <si>
+    <t>CREALITY 3D-Ender-3 V2 X +, eje sincrónico de goma, ancho de GT2-6mm, 6mm, Kit de correa de distribución abierta, piezas de impresora originales</t>
+  </si>
+  <si>
+    <t>CLP2.042x1</t>
+  </si>
+  <si>
+    <t>CLP3.838x1</t>
+  </si>
+  <si>
+    <t>CLP2.647x1</t>
+  </si>
+  <si>
+    <t>CLP2.499x1</t>
+  </si>
+  <si>
+    <t>CLP2.169x1</t>
+  </si>
+  <si>
+    <t>CLP4.196x1</t>
+  </si>
+  <si>
+    <t>CLP4.167x1</t>
+  </si>
+  <si>
+    <t>CLP1.633x1</t>
+  </si>
+  <si>
+    <t>CLP3.412x1</t>
+  </si>
+  <si>
+    <t>CLP2.063x1</t>
+  </si>
+  <si>
+    <t>CLP12.382x1</t>
+  </si>
+  <si>
+    <t>CLP2.354x1</t>
+  </si>
+  <si>
+    <t>CLP3.049x1</t>
+  </si>
+  <si>
+    <t>CLP3.695x1</t>
+  </si>
+  <si>
+    <t>CLP2.211x1</t>
+  </si>
+  <si>
+    <t>Entrega rápida</t>
+  </si>
+  <si>
+    <t>CLP2.865x1</t>
+  </si>
+  <si>
+    <t>CLP4.020x1</t>
+  </si>
+  <si>
+    <t>CLP1.181x1</t>
+  </si>
+  <si>
+    <t>Pedido efectuado el: 11 oct, 2023</t>
+  </si>
+  <si>
+    <t>Pedido efectuado el: 19 feb, 2023</t>
+  </si>
+  <si>
+    <t>Pedido efectuado el: 8 feb, 2023</t>
+  </si>
+  <si>
+    <t>Pedido efectuado el: 28 nov, 2022</t>
+  </si>
+  <si>
+    <t>Pedido efectuado el: 29 oct, 2022</t>
+  </si>
+  <si>
+    <t>Pedido efectuado el: 23 sep, 2022</t>
+  </si>
+  <si>
+    <t>Pedido efectuado el: 5 sep, 2022</t>
+  </si>
+  <si>
+    <t>Pedido efectuado el: 3 ago, 2022</t>
+  </si>
+  <si>
+    <t>Pedido efectuado el: 8 jun, 2022</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/1102786659?spm=a2g0o.order_list.order_list_main.2.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/1102911906?spm=a2g0o.order_list.order_list_main.8.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/5053183?spm=a2g0o.order_list.order_list_main.14.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/4073015?spm=a2g0o.order_list.order_list_main.19.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/1088404?spm=a2g0o.order_list.order_list_main.24.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/4780018?spm=a2g0o.order_list.order_list_main.29.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/911788237?spm=a2g0o.order_list.order_list_main.34.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/3246044?spm=a2g0o.order_list.order_list_main.39.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/912538597?spm=a2g0o.order_list.order_list_main.44.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/2949171?spm=a2g0o.order_list.order_list_main.49.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/912022023?spm=a2g0o.order_list.order_list_main.54.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/1102203066?spm=a2g0o.order_list.order_list_main.59.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/2173042?spm=a2g0o.order_list.order_list_main.64.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/4660062?spm=a2g0o.order_list.order_list_main.69.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/5124195?spm=a2g0o.order_list.order_list_main.74.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/912471925?spm=a2g0o.order_list.order_list_main.79.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/1045229?spm=a2g0o.order_list.order_list_main.84.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/911833154?spm=a2g0o.order_list.order_list_main.89.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/912017440?spm=a2g0o.order_list.order_list_main.94.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/store/912330468?spm=a2g0o.order_list.order_list_main.99.21ef194do14gTv</t>
+  </si>
+  <si>
+    <t>Shop1102786659 Store</t>
+  </si>
+  <si>
+    <t>Shop1102911906 Store</t>
+  </si>
+  <si>
+    <t>TIEJMW Store</t>
+  </si>
+  <si>
+    <t>Viola Store</t>
+  </si>
+  <si>
+    <t>Gemay G.M Official Store</t>
+  </si>
+  <si>
+    <t>AEGIS GUARDIAN Store</t>
+  </si>
+  <si>
+    <t>JLGroppod Watchband Store</t>
+  </si>
+  <si>
+    <t>EIMO Official Store</t>
+  </si>
+  <si>
+    <t>MoTie Store</t>
+  </si>
+  <si>
+    <t>VanGise Store</t>
+  </si>
+  <si>
+    <t>Disney Earphone Cover Store</t>
+  </si>
+  <si>
+    <t>Shop1102203066 Store</t>
+  </si>
+  <si>
+    <t>ADORARE Wristwatch Store</t>
+  </si>
+  <si>
+    <t>Antony 3C Store</t>
+  </si>
+  <si>
+    <t>YTIME Watchbands Store</t>
+  </si>
+  <si>
+    <t>Einstein WatchS Traps Store</t>
+  </si>
+  <si>
+    <t>coolshop Store</t>
+  </si>
+  <si>
+    <t>Best-sell Store</t>
+  </si>
+  <si>
+    <t>AHCUGOUR Official Store</t>
+  </si>
+  <si>
+    <t>MAYBEMONDA Official Store</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +337,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,63 +659,387 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cantidad</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Bulbasaur</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Charmander</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9000</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>